--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>52.040952614113</v>
+        <v>52.813101</v>
       </c>
       <c r="H2">
-        <v>52.040952614113</v>
+        <v>105.626202</v>
       </c>
       <c r="I2">
-        <v>0.267099108943536</v>
+        <v>0.2636577117692198</v>
       </c>
       <c r="J2">
-        <v>0.267099108943536</v>
+        <v>0.1954072982860194</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>8564.490883375209</v>
+        <v>8691.83600922082</v>
       </c>
       <c r="R2">
-        <v>8564.490883375209</v>
+        <v>34767.34403688328</v>
       </c>
       <c r="S2">
-        <v>0.06328355538630782</v>
+        <v>0.06118877141860033</v>
       </c>
       <c r="T2">
-        <v>0.06328355538630782</v>
+        <v>0.03528270327369819</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>52.040952614113</v>
+        <v>52.813101</v>
       </c>
       <c r="H3">
-        <v>52.040952614113</v>
+        <v>105.626202</v>
       </c>
       <c r="I3">
-        <v>0.267099108943536</v>
+        <v>0.2636577117692198</v>
       </c>
       <c r="J3">
-        <v>0.267099108943536</v>
+        <v>0.1954072982860194</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>5795.867604844239</v>
+        <v>6272.312449861128</v>
       </c>
       <c r="R3">
-        <v>5795.867604844239</v>
+        <v>37633.87469916677</v>
       </c>
       <c r="S3">
-        <v>0.04282602592231623</v>
+        <v>0.044155813841108</v>
       </c>
       <c r="T3">
-        <v>0.04282602592231623</v>
+        <v>0.03819172475877371</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>52.040952614113</v>
+        <v>52.813101</v>
       </c>
       <c r="H4">
-        <v>52.040952614113</v>
+        <v>105.626202</v>
       </c>
       <c r="I4">
-        <v>0.267099108943536</v>
+        <v>0.2636577117692198</v>
       </c>
       <c r="J4">
-        <v>0.267099108943536</v>
+        <v>0.1954072982860194</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>4372.566756833871</v>
+        <v>4464.394782768658</v>
       </c>
       <c r="R4">
-        <v>4372.566756833871</v>
+        <v>26786.36869661195</v>
       </c>
       <c r="S4">
-        <v>0.03230916750388022</v>
+        <v>0.03142843831791434</v>
       </c>
       <c r="T4">
-        <v>0.03230916750388022</v>
+        <v>0.0271834252711344</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>52.040952614113</v>
+        <v>52.813101</v>
       </c>
       <c r="H5">
-        <v>52.040952614113</v>
+        <v>105.626202</v>
       </c>
       <c r="I5">
-        <v>0.267099108943536</v>
+        <v>0.2636577117692198</v>
       </c>
       <c r="J5">
-        <v>0.267099108943536</v>
+        <v>0.1954072982860194</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>4111.302783332305</v>
+        <v>4205.808355327535</v>
       </c>
       <c r="R5">
-        <v>4111.302783332305</v>
+        <v>25234.85013196521</v>
       </c>
       <c r="S5">
-        <v>0.03037867176716021</v>
+        <v>0.0296080420536657</v>
       </c>
       <c r="T5">
-        <v>0.03037867176716021</v>
+        <v>0.02560890841756079</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>52.040952614113</v>
+        <v>52.813101</v>
       </c>
       <c r="H6">
-        <v>52.040952614113</v>
+        <v>105.626202</v>
       </c>
       <c r="I6">
-        <v>0.267099108943536</v>
+        <v>0.2636577117692198</v>
       </c>
       <c r="J6">
-        <v>0.267099108943536</v>
+        <v>0.1954072982860194</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>6040.640927768924</v>
+        <v>6429.112222953683</v>
       </c>
       <c r="R6">
-        <v>6040.640927768924</v>
+        <v>38574.6733377221</v>
       </c>
       <c r="S6">
-        <v>0.04463467121709531</v>
+        <v>0.0452596526001539</v>
       </c>
       <c r="T6">
-        <v>0.04463467121709531</v>
+        <v>0.03914646893391787</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>52.040952614113</v>
+        <v>52.813101</v>
       </c>
       <c r="H7">
-        <v>52.040952614113</v>
+        <v>105.626202</v>
       </c>
       <c r="I7">
-        <v>0.267099108943536</v>
+        <v>0.2636577117692198</v>
       </c>
       <c r="J7">
-        <v>0.267099108943536</v>
+        <v>0.1954072982860194</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>7263.035022064395</v>
+        <v>7388.989303773215</v>
       </c>
       <c r="R7">
-        <v>7263.035022064395</v>
+        <v>29555.95721509286</v>
       </c>
       <c r="S7">
-        <v>0.05366701714677618</v>
+        <v>0.0520169935377776</v>
       </c>
       <c r="T7">
-        <v>0.05366701714677618</v>
+        <v>0.02999406763093439</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.76498874544929</v>
+        <v>4.139129333333334</v>
       </c>
       <c r="H8">
-        <v>3.76498874544929</v>
+        <v>12.417388</v>
       </c>
       <c r="I8">
-        <v>0.01932372657642764</v>
+        <v>0.02066368662471691</v>
       </c>
       <c r="J8">
-        <v>0.01932372657642764</v>
+        <v>0.02297202961864744</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>619.6122508654101</v>
+        <v>681.2066079264847</v>
       </c>
       <c r="R8">
-        <v>619.6122508654101</v>
+        <v>4087.239647558908</v>
       </c>
       <c r="S8">
-        <v>0.004578353428081781</v>
+        <v>0.004795557046524439</v>
       </c>
       <c r="T8">
-        <v>0.004578353428081781</v>
+        <v>0.004147825141326019</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.76498874544929</v>
+        <v>4.139129333333334</v>
       </c>
       <c r="H9">
-        <v>3.76498874544929</v>
+        <v>12.417388</v>
       </c>
       <c r="I9">
-        <v>0.01932372657642764</v>
+        <v>0.02066368662471691</v>
       </c>
       <c r="J9">
-        <v>0.01932372657642764</v>
+        <v>0.02297202961864744</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>419.3116229858358</v>
+        <v>491.5809137784213</v>
       </c>
       <c r="R9">
-        <v>419.3116229858358</v>
+        <v>4424.228224005792</v>
       </c>
       <c r="S9">
-        <v>0.003098319640792155</v>
+        <v>0.003460630427797378</v>
       </c>
       <c r="T9">
-        <v>0.003098319640792155</v>
+        <v>0.004489808927513076</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.76498874544929</v>
+        <v>4.139129333333334</v>
       </c>
       <c r="H10">
-        <v>3.76498874544929</v>
+        <v>12.417388</v>
       </c>
       <c r="I10">
-        <v>0.01932372657642764</v>
+        <v>0.02066368662471691</v>
       </c>
       <c r="J10">
-        <v>0.01932372657642764</v>
+        <v>0.02297202961864744</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>316.3405702865768</v>
+        <v>349.8887028227721</v>
       </c>
       <c r="R10">
-        <v>316.3405702865768</v>
+        <v>3148.998325404948</v>
       </c>
       <c r="S10">
-        <v>0.002337460133155909</v>
+        <v>0.002463145857360971</v>
       </c>
       <c r="T10">
-        <v>0.002337460133155909</v>
+        <v>0.003195676189897286</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.76498874544929</v>
+        <v>4.139129333333334</v>
       </c>
       <c r="H11">
-        <v>3.76498874544929</v>
+        <v>12.417388</v>
       </c>
       <c r="I11">
-        <v>0.01932372657642764</v>
+        <v>0.02066368662471691</v>
       </c>
       <c r="J11">
-        <v>0.01932372657642764</v>
+        <v>0.02297202961864744</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>297.4389962297253</v>
+        <v>329.6224687490823</v>
       </c>
       <c r="R11">
-        <v>297.4389962297253</v>
+        <v>2966.60221874174</v>
       </c>
       <c r="S11">
-        <v>0.002197795227792175</v>
+        <v>0.002320475659380324</v>
       </c>
       <c r="T11">
-        <v>0.002197795227792175</v>
+        <v>0.003010576410551222</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.76498874544929</v>
+        <v>4.139129333333334</v>
       </c>
       <c r="H12">
-        <v>3.76498874544929</v>
+        <v>12.417388</v>
       </c>
       <c r="I12">
-        <v>0.01932372657642764</v>
+        <v>0.02066368662471691</v>
       </c>
       <c r="J12">
-        <v>0.01932372657642764</v>
+        <v>0.02297202961864744</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>437.0201536661089</v>
+        <v>503.8698066473974</v>
       </c>
       <c r="R12">
-        <v>437.0201536661089</v>
+        <v>4534.828259826576</v>
       </c>
       <c r="S12">
-        <v>0.003229169074503451</v>
+        <v>0.003547141753592036</v>
       </c>
       <c r="T12">
-        <v>0.003229169074503451</v>
+        <v>0.004602048396877931</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.76498874544929</v>
+        <v>4.139129333333334</v>
       </c>
       <c r="H13">
-        <v>3.76498874544929</v>
+        <v>12.417388</v>
       </c>
       <c r="I13">
-        <v>0.01932372657642764</v>
+        <v>0.02066368662471691</v>
       </c>
       <c r="J13">
-        <v>0.01932372657642764</v>
+        <v>0.02297202961864744</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>525.4562751501347</v>
+        <v>579.0984015677087</v>
       </c>
       <c r="R13">
-        <v>525.4562751501347</v>
+        <v>3474.590409406252</v>
       </c>
       <c r="S13">
-        <v>0.003882629072102167</v>
+        <v>0.004076735880061762</v>
       </c>
       <c r="T13">
-        <v>0.003882629072102167</v>
+        <v>0.003526094552481903</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>45.137551953055</v>
+        <v>45.51938266666667</v>
       </c>
       <c r="H14">
-        <v>45.137551953055</v>
+        <v>136.558148</v>
       </c>
       <c r="I14">
-        <v>0.2316675483623647</v>
+        <v>0.227245438116592</v>
       </c>
       <c r="J14">
-        <v>0.2316675483623647</v>
+        <v>0.2526310541736829</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>7428.38347073181</v>
+        <v>7491.455754125012</v>
       </c>
       <c r="R14">
-        <v>7428.38347073181</v>
+        <v>44948.73452475007</v>
       </c>
       <c r="S14">
-        <v>0.05488878710972823</v>
+        <v>0.05273833666965447</v>
       </c>
       <c r="T14">
-        <v>0.05488878710972823</v>
+        <v>0.04561501336088712</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>45.137551953055</v>
+        <v>45.51938266666667</v>
       </c>
       <c r="H15">
-        <v>45.137551953055</v>
+        <v>136.558148</v>
       </c>
       <c r="I15">
-        <v>0.2316675483623647</v>
+        <v>0.227245438116592</v>
       </c>
       <c r="J15">
-        <v>0.2316675483623647</v>
+        <v>0.2526310541736829</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>5027.027023631748</v>
+        <v>5406.078893381515</v>
       </c>
       <c r="R15">
-        <v>5027.027023631748</v>
+        <v>48654.71004043364</v>
       </c>
       <c r="S15">
-        <v>0.03714501508735259</v>
+        <v>0.03805770441677893</v>
       </c>
       <c r="T15">
-        <v>0.03714501508735259</v>
+        <v>0.04937592286035131</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>45.137551953055</v>
+        <v>45.51938266666667</v>
       </c>
       <c r="H16">
-        <v>45.137551953055</v>
+        <v>136.558148</v>
       </c>
       <c r="I16">
-        <v>0.2316675483623647</v>
+        <v>0.227245438116592</v>
       </c>
       <c r="J16">
-        <v>0.2316675483623647</v>
+        <v>0.2526310541736829</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>3792.531635965212</v>
+        <v>3847.842498245213</v>
       </c>
       <c r="R16">
-        <v>3792.531635965212</v>
+        <v>34630.58248420691</v>
       </c>
       <c r="S16">
-        <v>0.02802325194890567</v>
+        <v>0.02708803466035582</v>
       </c>
       <c r="T16">
-        <v>0.02802325194890567</v>
+        <v>0.03514391449313412</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>45.137551953055</v>
+        <v>45.51938266666667</v>
       </c>
       <c r="H17">
-        <v>45.137551953055</v>
+        <v>136.558148</v>
       </c>
       <c r="I17">
-        <v>0.2316675483623647</v>
+        <v>0.227245438116592</v>
       </c>
       <c r="J17">
-        <v>0.2316675483623647</v>
+        <v>0.2526310541736829</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>3565.925173458021</v>
+        <v>3624.967978093505</v>
       </c>
       <c r="R17">
-        <v>3565.925173458021</v>
+        <v>32624.71180284154</v>
       </c>
       <c r="S17">
-        <v>0.02634884271474957</v>
+        <v>0.02551904301645852</v>
       </c>
       <c r="T17">
-        <v>0.02634884271474957</v>
+        <v>0.03310831062356774</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>45.137551953055</v>
+        <v>45.51938266666667</v>
       </c>
       <c r="H18">
-        <v>45.137551953055</v>
+        <v>136.558148</v>
       </c>
       <c r="I18">
-        <v>0.2316675483623647</v>
+        <v>0.227245438116592</v>
       </c>
       <c r="J18">
-        <v>0.2316675483623647</v>
+        <v>0.2526310541736829</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>5239.33037369069</v>
+        <v>5541.223937666011</v>
       </c>
       <c r="R18">
-        <v>5239.33037369069</v>
+        <v>49871.01543899409</v>
       </c>
       <c r="S18">
-        <v>0.03871373773474703</v>
+        <v>0.03900909825512425</v>
       </c>
       <c r="T18">
-        <v>0.03871373773474703</v>
+        <v>0.05061025765515414</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>45.137551953055</v>
+        <v>45.51938266666667</v>
       </c>
       <c r="H19">
-        <v>45.137551953055</v>
+        <v>136.558148</v>
       </c>
       <c r="I19">
-        <v>0.2316675483623647</v>
+        <v>0.227245438116592</v>
       </c>
       <c r="J19">
-        <v>0.2316675483623647</v>
+        <v>0.2526310541736829</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N19">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O19">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P19">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q19">
-        <v>6299.56993824098</v>
+        <v>6368.537830004716</v>
       </c>
       <c r="R19">
-        <v>6299.56993824098</v>
+        <v>38211.2269800283</v>
       </c>
       <c r="S19">
-        <v>0.0465479137668816</v>
+        <v>0.04483322109822004</v>
       </c>
       <c r="T19">
-        <v>0.0465479137668816</v>
+        <v>0.0387776351805885</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>42.5902897480684</v>
+        <v>43.599874</v>
       </c>
       <c r="H20">
-        <v>42.5902897480684</v>
+        <v>130.799622</v>
       </c>
       <c r="I20">
-        <v>0.2185937779753684</v>
+        <v>0.2176627161557187</v>
       </c>
       <c r="J20">
-        <v>0.2185937779753684</v>
+        <v>0.2419778451548658</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N20">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O20">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P20">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q20">
-        <v>7009.175081255525</v>
+        <v>7175.548257063917</v>
       </c>
       <c r="R20">
-        <v>7009.175081255525</v>
+        <v>43053.2895423835</v>
       </c>
       <c r="S20">
-        <v>0.0517912302677537</v>
+        <v>0.05051441164315983</v>
       </c>
       <c r="T20">
-        <v>0.0517912302677537</v>
+        <v>0.04369147203965439</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>42.5902897480684</v>
+        <v>43.599874</v>
       </c>
       <c r="H21">
-        <v>42.5902897480684</v>
+        <v>130.799622</v>
       </c>
       <c r="I21">
-        <v>0.2185937779753684</v>
+        <v>0.2176627161557187</v>
       </c>
       <c r="J21">
-        <v>0.2185937779753684</v>
+        <v>0.2419778451548658</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P21">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q21">
-        <v>4743.335166482265</v>
+        <v>5178.109736494672</v>
       </c>
       <c r="R21">
-        <v>4743.335166482265</v>
+        <v>46602.98762845204</v>
       </c>
       <c r="S21">
-        <v>0.03504879832455435</v>
+        <v>0.03645284755840723</v>
       </c>
       <c r="T21">
-        <v>0.03504879832455435</v>
+        <v>0.04729378759614629</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>42.5902897480684</v>
+        <v>43.599874</v>
       </c>
       <c r="H22">
-        <v>42.5902897480684</v>
+        <v>130.799622</v>
       </c>
       <c r="I22">
-        <v>0.2185937779753684</v>
+        <v>0.2176627161557187</v>
       </c>
       <c r="J22">
-        <v>0.2185937779753684</v>
+        <v>0.2419778451548658</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N22">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O22">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P22">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q22">
-        <v>3578.50646004168</v>
+        <v>3685.582674173418</v>
       </c>
       <c r="R22">
-        <v>3578.50646004168</v>
+        <v>33170.24406756076</v>
       </c>
       <c r="S22">
-        <v>0.02644180662319316</v>
+        <v>0.02594575824430073</v>
       </c>
       <c r="T22">
-        <v>0.02644180662319316</v>
+        <v>0.0336619293584903</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>42.5902897480684</v>
+        <v>43.599874</v>
       </c>
       <c r="H23">
-        <v>42.5902897480684</v>
+        <v>130.799622</v>
       </c>
       <c r="I23">
-        <v>0.2185937779753684</v>
+        <v>0.2176627161557187</v>
       </c>
       <c r="J23">
-        <v>0.2185937779753684</v>
+        <v>0.2419778451548658</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N23">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O23">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P23">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q23">
-        <v>3364.688154011176</v>
+        <v>3472.106558568256</v>
       </c>
       <c r="R23">
-        <v>3364.688154011176</v>
+        <v>31248.95902711431</v>
       </c>
       <c r="S23">
-        <v>0.02486188987197637</v>
+        <v>0.02444292947173327</v>
       </c>
       <c r="T23">
-        <v>0.02486188987197637</v>
+        <v>0.03171216494984426</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>42.5902897480684</v>
+        <v>43.599874</v>
       </c>
       <c r="H24">
-        <v>42.5902897480684</v>
+        <v>130.799622</v>
       </c>
       <c r="I24">
-        <v>0.2185937779753684</v>
+        <v>0.2176627161557187</v>
       </c>
       <c r="J24">
-        <v>0.2185937779753684</v>
+        <v>0.2419778451548658</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N24">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O24">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P24">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q24">
-        <v>4943.65753227871</v>
+        <v>5307.555844006215</v>
       </c>
       <c r="R24">
-        <v>4943.65753227871</v>
+        <v>47768.00259605594</v>
       </c>
       <c r="S24">
-        <v>0.03652899273466267</v>
+        <v>0.03736412203196481</v>
       </c>
       <c r="T24">
-        <v>0.03652899273466267</v>
+        <v>0.04847607167766194</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>42.5902897480684</v>
+        <v>43.599874</v>
       </c>
       <c r="H25">
-        <v>42.5902897480684</v>
+        <v>130.799622</v>
       </c>
       <c r="I25">
-        <v>0.2185937779753684</v>
+        <v>0.2176627161557187</v>
       </c>
       <c r="J25">
-        <v>0.2185937779753684</v>
+        <v>0.2419778451548658</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N25">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O25">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P25">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q25">
-        <v>5944.064251356582</v>
+        <v>6099.982703758673</v>
       </c>
       <c r="R25">
-        <v>5944.064251356582</v>
+        <v>36599.89622255204</v>
       </c>
       <c r="S25">
-        <v>0.04392106015322815</v>
+        <v>0.04294264720615284</v>
       </c>
       <c r="T25">
-        <v>0.04392106015322815</v>
+        <v>0.03714241953306863</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>44.4166372329266</v>
+        <v>46.66673533333333</v>
       </c>
       <c r="H26">
-        <v>44.4166372329266</v>
+        <v>140.000206</v>
       </c>
       <c r="I26">
-        <v>0.2279674685271936</v>
+        <v>0.2329733422342775</v>
       </c>
       <c r="J26">
-        <v>0.2279674685271936</v>
+        <v>0.2589988231702788</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N26">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O26">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P26">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q26">
-        <v>7309.740993258092</v>
+        <v>7680.283924305907</v>
       </c>
       <c r="R26">
-        <v>7309.740993258092</v>
+        <v>46081.70354583544</v>
       </c>
       <c r="S26">
-        <v>0.05401213047051678</v>
+        <v>0.05406764888059977</v>
       </c>
       <c r="T26">
-        <v>0.05401213047051678</v>
+        <v>0.04676477647614955</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>44.4166372329266</v>
+        <v>46.66673533333333</v>
       </c>
       <c r="H27">
-        <v>44.4166372329266</v>
+        <v>140.000206</v>
       </c>
       <c r="I27">
-        <v>0.2279674685271936</v>
+        <v>0.2329733422342775</v>
       </c>
       <c r="J27">
-        <v>0.2279674685271936</v>
+        <v>0.2589988231702788</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P27">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q27">
-        <v>4946.737827097816</v>
+        <v>5542.343461817189</v>
       </c>
       <c r="R27">
-        <v>4946.737827097816</v>
+        <v>49881.0911563547</v>
       </c>
       <c r="S27">
-        <v>0.03655175322450911</v>
+        <v>0.03901697947921905</v>
       </c>
       <c r="T27">
-        <v>0.03655175322450911</v>
+        <v>0.05062048272571251</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>44.4166372329266</v>
+        <v>46.66673533333333</v>
       </c>
       <c r="H28">
-        <v>44.4166372329266</v>
+        <v>140.000206</v>
       </c>
       <c r="I28">
-        <v>0.2279674685271936</v>
+        <v>0.2329733422342775</v>
       </c>
       <c r="J28">
-        <v>0.2279674685271936</v>
+        <v>0.2589988231702788</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N28">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O28">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P28">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q28">
-        <v>3731.959190969446</v>
+        <v>3944.830464527714</v>
       </c>
       <c r="R28">
-        <v>3731.959190969446</v>
+        <v>35503.47418074943</v>
       </c>
       <c r="S28">
-        <v>0.02757567838849538</v>
+        <v>0.02777081036998945</v>
       </c>
       <c r="T28">
-        <v>0.02757567838849538</v>
+        <v>0.03602974513600728</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>44.4166372329266</v>
+        <v>46.66673533333333</v>
       </c>
       <c r="H29">
-        <v>44.4166372329266</v>
+        <v>140.000206</v>
       </c>
       <c r="I29">
-        <v>0.2279674685271936</v>
+        <v>0.2329733422342775</v>
       </c>
       <c r="J29">
-        <v>0.2279674685271936</v>
+        <v>0.2589988231702788</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N29">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O29">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P29">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q29">
-        <v>3508.97197513003</v>
+        <v>3716.338212762625</v>
       </c>
       <c r="R29">
-        <v>3508.97197513003</v>
+        <v>33447.04391486363</v>
       </c>
       <c r="S29">
-        <v>0.02592801199288927</v>
+        <v>0.02616227102923989</v>
       </c>
       <c r="T29">
-        <v>0.02592801199288927</v>
+        <v>0.03394283223298746</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>44.4166372329266</v>
+        <v>46.66673533333333</v>
       </c>
       <c r="H30">
-        <v>44.4166372329266</v>
+        <v>140.000206</v>
       </c>
       <c r="I30">
-        <v>0.2279674685271936</v>
+        <v>0.2329733422342775</v>
       </c>
       <c r="J30">
-        <v>0.2279674685271936</v>
+        <v>0.2589988231702788</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N30">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O30">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P30">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q30">
-        <v>5155.650372747399</v>
+        <v>5680.8949456855</v>
       </c>
       <c r="R30">
-        <v>5155.650372747399</v>
+        <v>51128.0545111695</v>
       </c>
       <c r="S30">
-        <v>0.03809542100739777</v>
+        <v>0.039992353964786</v>
       </c>
       <c r="T30">
-        <v>0.03809542100739777</v>
+        <v>0.05188592992220908</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>44.4166372329266</v>
+        <v>46.66673533333333</v>
       </c>
       <c r="H31">
-        <v>44.4166372329266</v>
+        <v>140.000206</v>
       </c>
       <c r="I31">
-        <v>0.2279674685271936</v>
+        <v>0.2329733422342775</v>
       </c>
       <c r="J31">
-        <v>0.2279674685271936</v>
+        <v>0.2589988231702788</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N31">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O31">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P31">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q31">
-        <v>6198.956313831761</v>
+        <v>6529.061950367495</v>
       </c>
       <c r="R31">
-        <v>6198.956313831761</v>
+        <v>39174.37170220498</v>
       </c>
       <c r="S31">
-        <v>0.04580447344338525</v>
+        <v>0.04596327851044341</v>
       </c>
       <c r="T31">
-        <v>0.04580447344338525</v>
+        <v>0.03975505667721297</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>6.8871919318718</v>
+        <v>7.571113</v>
       </c>
       <c r="H32">
-        <v>6.8871919318718</v>
+        <v>15.142226</v>
       </c>
       <c r="I32">
-        <v>0.03534836961510955</v>
+        <v>0.03779710509947509</v>
       </c>
       <c r="J32">
-        <v>0.03534836961510955</v>
+        <v>0.02801294959650559</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N32">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O32">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P32">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q32">
-        <v>1133.439907411977</v>
+        <v>1246.033112187067</v>
       </c>
       <c r="R32">
-        <v>1133.439907411977</v>
+        <v>4984.132448748266</v>
       </c>
       <c r="S32">
-        <v>0.008375057914649783</v>
+        <v>0.008771821649734095</v>
       </c>
       <c r="T32">
-        <v>0.008375057914649783</v>
+        <v>0.005058012659219517</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>6.8871919318718</v>
+        <v>7.571113</v>
       </c>
       <c r="H33">
-        <v>6.8871919318718</v>
+        <v>15.142226</v>
       </c>
       <c r="I33">
-        <v>0.03534836961510955</v>
+        <v>0.03779710509947509</v>
       </c>
       <c r="J33">
-        <v>0.03534836961510955</v>
+        <v>0.02801294959650559</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P33">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q33">
-        <v>767.0353942647699</v>
+        <v>899.178147657064</v>
       </c>
       <c r="R33">
-        <v>767.0353942647699</v>
+        <v>5395.068885942384</v>
       </c>
       <c r="S33">
-        <v>0.005667672196421727</v>
+        <v>0.006330032697720073</v>
       </c>
       <c r="T33">
-        <v>0.005667672196421727</v>
+        <v>0.005475040441453599</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>6.8871919318718</v>
+        <v>7.571113</v>
       </c>
       <c r="H34">
-        <v>6.8871919318718</v>
+        <v>15.142226</v>
       </c>
       <c r="I34">
-        <v>0.03534836961510955</v>
+        <v>0.03779710509947509</v>
       </c>
       <c r="J34">
-        <v>0.03534836961510955</v>
+        <v>0.02801294959650559</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N34">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O34">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P34">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q34">
-        <v>578.6732366822637</v>
+        <v>640.0009985581411</v>
       </c>
       <c r="R34">
-        <v>578.6732366822637</v>
+        <v>3840.005991348847</v>
       </c>
       <c r="S34">
-        <v>0.004275852508085589</v>
+        <v>0.004505477872213172</v>
       </c>
       <c r="T34">
-        <v>0.004275852508085589</v>
+        <v>0.003896926720035133</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>6.8871919318718</v>
+        <v>7.571113</v>
       </c>
       <c r="H35">
-        <v>6.8871919318718</v>
+        <v>15.142226</v>
       </c>
       <c r="I35">
-        <v>0.03534836961510955</v>
+        <v>0.03779710509947509</v>
       </c>
       <c r="J35">
-        <v>0.03534836961510955</v>
+        <v>0.02801294959650559</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N35">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O35">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P35">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q35">
-        <v>544.0970992366016</v>
+        <v>602.9308961526217</v>
       </c>
       <c r="R35">
-        <v>544.0970992366016</v>
+        <v>3617.58537691573</v>
       </c>
       <c r="S35">
-        <v>0.004020367279730155</v>
+        <v>0.004244511832339765</v>
       </c>
       <c r="T35">
-        <v>0.004020367279730155</v>
+        <v>0.003671209146306405</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>6.8871919318718</v>
+        <v>7.571113</v>
       </c>
       <c r="H36">
-        <v>6.8871919318718</v>
+        <v>15.142226</v>
       </c>
       <c r="I36">
-        <v>0.03534836961510955</v>
+        <v>0.03779710509947509</v>
       </c>
       <c r="J36">
-        <v>0.03534836961510955</v>
+        <v>0.02801294959650559</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N36">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O36">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P36">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q36">
-        <v>799.4291297769666</v>
+        <v>921.6564490250919</v>
       </c>
       <c r="R36">
-        <v>799.4291297769666</v>
+        <v>5529.938694150552</v>
       </c>
       <c r="S36">
-        <v>0.005907031521263185</v>
+        <v>0.006488275403038896</v>
       </c>
       <c r="T36">
-        <v>0.005907031521263185</v>
+        <v>0.005611909436063633</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>6.8871919318718</v>
+        <v>7.571113</v>
       </c>
       <c r="H37">
-        <v>6.8871919318718</v>
+        <v>15.142226</v>
       </c>
       <c r="I37">
-        <v>0.03534836961510955</v>
+        <v>0.03779710509947509</v>
       </c>
       <c r="J37">
-        <v>0.03534836961510955</v>
+        <v>0.02801294959650559</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N37">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O37">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P37">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q37">
-        <v>961.2029313871315</v>
+        <v>1059.261280163389</v>
       </c>
       <c r="R37">
-        <v>961.2029313871315</v>
+        <v>4237.045120653554</v>
       </c>
       <c r="S37">
-        <v>0.007102388194959106</v>
+        <v>0.007456985644429096</v>
       </c>
       <c r="T37">
-        <v>0.007102388194959106</v>
+        <v>0.004299851193427301</v>
       </c>
     </row>
   </sheetData>
